--- a/Datalake.xlsx
+++ b/Datalake.xlsx
@@ -918,7 +918,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +929,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -965,10 +971,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2260,7 +2266,7 @@
         <v>24784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>24784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>24784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>24784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>24784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>24784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
